--- a/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Ocean_Column_Water_mass_flows.xlsx
+++ b/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Ocean_Column_Water_mass_flows.xlsx
@@ -475,31 +475,31 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>1.924209930268959E-15</v>
+        <v>4.65047653060642E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.854352550584213E-13</v>
+        <v>2.381623467373324E-13</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>4.626746873380542E-14</v>
+        <v>1.118203238079399E-14</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.711554952119367E-16</v>
+        <v>4.136526898892864E-17</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.577152975969616E-18</v>
+        <v>6.228524882861391E-19</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>1.993500014483502E-07</v>
+        <v>4.817938461539514E-08</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -674,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.033800666370684E-12</v>
+        <v>2.498514148926642E-13</v>
       </c>
       <c r="G7">
-        <v>4.79335430817904E-05</v>
+        <v>1.158469320961876E-05</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.77318740963069E-07</v>
+        <v>4.285481694661923E-08</v>
       </c>
       <c r="J7">
-        <v>4.254802663973761E-08</v>
+        <v>1.028310872941287E-08</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -855,13 +855,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>2.597970036169327E-11</v>
+        <v>3.315434224269436E-11</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.950030301469428E-05</v>
+        <v>3.764720642638757E-05</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.155427069291191E-11</v>
+        <v>1.474513714878609E-11</v>
       </c>
       <c r="J12">
-        <v>6.007643855098273E-10</v>
+        <v>7.666735092058083E-10</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -893,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>2.955969004970716E-12</v>
+        <v>3.76063442136776E-12</v>
       </c>
       <c r="D13">
-        <v>2.190699567376406E-12</v>
+        <v>2.78704552926555E-12</v>
       </c>
       <c r="E13">
-        <v>1.251833328854092E-05</v>
+        <v>1.592603812282098E-05</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.314644340303819E-12</v>
+        <v>1.672513057372816E-12</v>
       </c>
       <c r="J13">
-        <v>1.336897416478019E-10</v>
+        <v>1.700823802208533E-10</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -931,13 +931,13 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>3.356861221493715E-13</v>
+        <v>4.487038797241835E-13</v>
       </c>
       <c r="D14">
-        <v>9.951219939455035E-13</v>
+        <v>1.330156565970652E-12</v>
       </c>
       <c r="E14">
-        <v>0.0001219312615709062</v>
+        <v>0.0001629826987669894</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.49293805131282E-13</v>
+        <v>1.995575782289392E-13</v>
       </c>
       <c r="J14">
-        <v>8.806605493252121E-11</v>
+        <v>1.177158598848538E-10</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.006484401013122125</v>
+        <v>0.008286139366879166</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.946124723981141E-05</v>
+        <v>3.764727074361214E-05</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01153554868515382</v>
+        <v>0.01474078544574493</v>
       </c>
       <c r="J17">
-        <v>0.5999436810747414</v>
+        <v>0.7666424305967253</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1083,16 +1083,16 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>0.0007389121889213308</v>
+        <v>0.0009400568567891301</v>
       </c>
       <c r="D18">
-        <v>2.190489269688899E-05</v>
+        <v>2.786778305416879E-05</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.251834517053471E-05</v>
+        <v>1.592605507075637E-05</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.001314501911912378</v>
+        <v>0.001672332049846877</v>
       </c>
       <c r="J18">
-        <v>0.1336875137530902</v>
+        <v>0.1700795654137782</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1121,16 +1121,16 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>8.392116085416707E-05</v>
+        <v>0.0001121754757839671</v>
       </c>
       <c r="D19">
-        <v>9.951178022877505E-06</v>
+        <v>1.330150963077166E-05</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0001219312701313589</v>
+        <v>0.0001629827102093696</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0001492931474763554</v>
+        <v>0.0001995566991565819</v>
       </c>
       <c r="J19">
-        <v>0.08806604485753529</v>
+        <v>0.1177158464177236</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>4.835030261675104E-05</v>
+        <v>1.168541664970464E-05</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>3.96727512232075E-08</v>
+        <v>7.230539365951427E-10</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>1.237573265587737E-10</v>
+        <v>1.555650373312833E-10</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>7.893159359126317E-11</v>
+        <v>1.055062157244061E-10</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.5532420278251532</v>
+        <v>0.7070113045943595</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>0.1213601413476597</v>
+        <v>0.1543930611725542</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>0.07892817326379808</v>
+        <v>0.1055014646903124</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>2.457282455939658E-09</v>
+        <v>5.938818946236801E-10</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1.858748818903245E-11</v>
+        <v>2.373852157806095E-11</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>4.014173212904729E-12</v>
+        <v>5.12452223141207E-12</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>2.054110527722735E-12</v>
+        <v>2.745682059389261E-12</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.06464674986729922</v>
+        <v>0.08261194764822795</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0.01439771582183174</v>
+        <v>0.01832011019304685</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.009381037088651036</v>
+        <v>0.01253941542342499</v>
       </c>
     </row>
     <row r="40" spans="1:5">
